--- a/analytics_csv/yearly_data.xlsx
+++ b/analytics_csv/yearly_data.xlsx
@@ -550,13 +550,13 @@
         <v>430.5669860839844</v>
       </c>
       <c r="F4" t="n">
-        <v>320.4349975585938</v>
+        <v>320.4349975585937</v>
       </c>
       <c r="G4" t="n">
-        <v>110.1319885253906</v>
+        <v>110.1319885253907</v>
       </c>
       <c r="H4" t="n">
-        <v>34.36952560253729</v>
+        <v>34.36952560253732</v>
       </c>
     </row>
     <row r="5">
@@ -567,7 +567,7 @@
         <v>568.4924068763607</v>
       </c>
       <c r="C5" t="n">
-        <v>975.9210205078125</v>
+        <v>975.9210205078124</v>
       </c>
       <c r="D5" t="n">
         <v>364.3309936523438</v>
@@ -576,13 +576,13 @@
         <v>963.7429809570312</v>
       </c>
       <c r="F5" t="n">
-        <v>430.7210083007812</v>
+        <v>430.7210083007813</v>
       </c>
       <c r="G5" t="n">
         <v>533.02197265625</v>
       </c>
       <c r="H5" t="n">
-        <v>123.7510969708796</v>
+        <v>123.7510969708795</v>
       </c>
     </row>
     <row r="6">
@@ -746,25 +746,25 @@
         <v>45291</v>
       </c>
       <c r="B12" t="n">
-        <v>26700.22687126049</v>
+        <v>26981.6931317597</v>
       </c>
       <c r="C12" t="n">
-        <v>34667.77936054675</v>
+        <v>37313.96968745709</v>
       </c>
       <c r="D12" t="n">
         <v>16625.08055070908</v>
       </c>
       <c r="E12" t="n">
-        <v>34667.77936054675</v>
+        <v>37313.96968745709</v>
       </c>
       <c r="F12" t="n">
         <v>16547.91439787154</v>
       </c>
       <c r="G12" t="n">
-        <v>18119.86496267521</v>
+        <v>20766.05528958555</v>
       </c>
       <c r="H12" t="n">
-        <v>109.4993878201706</v>
+        <v>125.4904684076476</v>
       </c>
     </row>
   </sheetData>
